--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed4/result_data_RandomForest.xlsx
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.34940000000001</v>
+        <v>13.85430000000001</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.90539999999999</v>
+        <v>12.5433</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.16979999999999</v>
+        <v>12.9167</v>
       </c>
     </row>
     <row r="21">
